--- a/syllabus/Day wise IT Coverage.xlsx
+++ b/syllabus/Day wise IT Coverage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\mahendraenggcollege\syllabus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\mahendraenggcollege\placementtraining-july-2023\syllabus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E955C87B-7D6E-4917-B5E0-A945A0E4C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03FE8D-3951-45E2-9DBF-2DE77D57870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1AB069D-1B9B-4FB6-BC34-02CD0CAB04DC}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,9 +777,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,91 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEDCC85-CF56-4B74-8A8C-6657778D3A86}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:E73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,1429 +1214,1593 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="25">
         <v>4</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="15" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="15" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="15" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="15" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="15" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="15" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="15" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="15" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="15" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="35" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="35" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="35"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="25">
         <v>6</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="15" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="15" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="15" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="15" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="16"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="15" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="28">
+      <c r="A46" s="20">
         <v>7</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="15" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="15" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="15" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="28">
+      <c r="A50" s="20">
         <v>8</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="13"/>
+      <c r="D50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="15" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="15" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="15" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="15" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="25">
         <v>9</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="15" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="15" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="15" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="15" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
+      <c r="A61" s="4">
         <v>10</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="15" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="15" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="15" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="15" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="15" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="15" t="s">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="15" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="15" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="15" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="15" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="15" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="15" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="28">
+      <c r="A75" s="20">
         <v>11</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="24"/>
+      <c r="D75" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="15" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="15" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="15" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="16"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+      <c r="A79" s="4">
         <v>12</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="15" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="16"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="15" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="15" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="16"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="15" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="15" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="16"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="15" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="15" t="s">
+      <c r="A85" s="5"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19" t="s">
+      <c r="A86" s="5"/>
+      <c r="B86" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="8"/>
+      <c r="D86" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="16"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="15" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E87" s="16"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="15" t="s">
+      <c r="A88" s="5"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="16"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="15" t="s">
+      <c r="A89" s="23"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E89" s="16"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="28">
+      <c r="A90" s="20">
         <v>13</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="13"/>
+      <c r="D90" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="16"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="15" t="s">
+      <c r="A91" s="21"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E91" s="16"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="15" t="s">
+      <c r="A92" s="21"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E92" s="16"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="15" t="s">
+      <c r="A93" s="21"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="15" t="s">
+      <c r="A94" s="21"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E94" s="16"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="15" t="s">
+      <c r="A95" s="21"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="16"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="15" t="s">
+      <c r="A96" s="21"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="16"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="15" t="s">
+      <c r="A97" s="21"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="29"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="15" t="s">
+      <c r="A98" s="21"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="30"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="15" t="s">
+      <c r="A99" s="22"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="16"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28">
+      <c r="A100" s="20">
         <v>14</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="13"/>
+      <c r="D100" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E100" s="16"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="15" t="s">
+      <c r="A101" s="21"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="15" t="s">
+      <c r="A102" s="21"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="16"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="15" t="s">
+      <c r="A103" s="21"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="16"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="30"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="15" t="s">
+      <c r="A104" s="22"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E104" s="16"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="28">
+      <c r="A105" s="20">
         <v>15</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="15" t="s">
+      <c r="C105" s="13"/>
+      <c r="D105" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="16"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="29"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="15" t="s">
+      <c r="A106" s="21"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E106" s="16"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="29"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="15" t="s">
+      <c r="A107" s="21"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="16"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="29"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="15" t="s">
+      <c r="A108" s="21"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E108" s="16"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="29"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="15" t="s">
+      <c r="A109" s="21"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E109" s="16"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="29"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="15" t="s">
+      <c r="A110" s="21"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E110" s="16"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="29"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="15" t="s">
+      <c r="A111" s="21"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="16"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="30"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="15" t="s">
+      <c r="A112" s="22"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="16"/>
+      <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="10">
+      <c r="A113" s="13">
         <v>16</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="15" t="s">
+      <c r="C113" s="15"/>
+      <c r="D113" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="16"/>
+      <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="15" t="s">
+      <c r="A114" s="13"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="16"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="15" t="s">
+      <c r="A115" s="13"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E115" s="16"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="15" t="s">
+      <c r="A116" s="13"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="16"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="15" t="s">
+      <c r="A117" s="13"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="16"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="15" t="s">
+      <c r="A118" s="13"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E118" s="16"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="15" t="s">
+      <c r="A119" s="13"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E119" s="16"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="15" t="s">
+      <c r="A120" s="13"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="16"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="19" t="s">
+      <c r="A121" s="13"/>
+      <c r="B121" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="15" t="s">
+      <c r="C121" s="8"/>
+      <c r="D121" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="16"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="15" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E122" s="16"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="15" t="s">
+      <c r="A123" s="13"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E123" s="16"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="15" t="s">
+      <c r="A124" s="13"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E124" s="16"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="15" t="s">
+      <c r="A125" s="13"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E125" s="16"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="17">
+      <c r="A126" s="4">
         <v>17</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="19"/>
+      <c r="C126" s="8"/>
       <c r="D126" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
       <c r="D127" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
       <c r="D129" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
       <c r="D130" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E130" s="9"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E131" s="9"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19" t="s">
+      <c r="A132" s="5"/>
+      <c r="B132" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="19"/>
+      <c r="C132" s="8"/>
       <c r="D132" s="9" t="s">
         <v>155</v>
       </c>
       <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
       <c r="D133" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
       <c r="D134" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="36" t="s">
+      <c r="A135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E135" s="36"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="9" t="s">
         <v>159</v>
       </c>
       <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
       <c r="D137" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
       <c r="D138" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="9" t="s">
         <v>162</v>
       </c>
       <c r="E139" s="9"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="33"/>
-      <c r="B140" s="19" t="s">
+      <c r="A140" s="6"/>
+      <c r="B140" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C140" s="19"/>
-      <c r="D140" s="8" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E140" s="8"/>
+      <c r="E140" s="9"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="33"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="8" t="s">
+      <c r="A141" s="6"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E141" s="8"/>
+      <c r="E141" s="9"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="33"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="8" t="s">
+      <c r="A142" s="6"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E142" s="8"/>
+      <c r="E142" s="9"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="8" t="s">
+      <c r="A143" s="6"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E143" s="8"/>
+      <c r="E143" s="9"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="33"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="8" t="s">
+      <c r="A144" s="6"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E144" s="8"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="33"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="8" t="s">
+      <c r="A145" s="6"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E145" s="8"/>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="33"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="8" t="s">
+      <c r="A146" s="6"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E146" s="8"/>
+      <c r="E146" s="9"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="33"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="8" t="s">
+      <c r="A147" s="6"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E147" s="8"/>
+      <c r="E147" s="9"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="33"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="8" t="s">
+      <c r="A148" s="6"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E148" s="8"/>
+      <c r="E148" s="9"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="33"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="8" t="s">
+      <c r="A149" s="6"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E149" s="8"/>
+      <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="8" t="s">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E150" s="8"/>
+      <c r="E150" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:C15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B23:C29"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C49"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:C60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:C55"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:C78"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C74"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="B61:C65"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C69"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="B90:C99"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:C85"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:C89"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:C104"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A105:A112"/>
+    <mergeCell ref="B105:C112"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A113:A125"/>
+    <mergeCell ref="B113:C120"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C125"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
     <mergeCell ref="A126:A150"/>
     <mergeCell ref="B126:C131"/>
     <mergeCell ref="D126:E126"/>
@@ -2664,169 +2825,6 @@
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="D147:E147"/>
     <mergeCell ref="D133:E133"/>
-    <mergeCell ref="B121:C125"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A113:A125"/>
-    <mergeCell ref="B113:C120"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A105:A112"/>
-    <mergeCell ref="B105:C112"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:C104"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="B90:C99"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="B79:C85"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:C89"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:C78"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C74"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="B61:C65"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C69"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:C60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:C55"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:C49"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B23:C29"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:C22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:C15"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
